--- a/codigo organizado/no_fe_resultados.xlsx
+++ b/codigo organizado/no_fe_resultados.xlsx
@@ -760,13 +760,13 @@
         <v>30845.22635783514</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003752383462216064</v>
+        <v>0.003752383462216062</v>
       </c>
       <c r="H3" t="n">
-        <v>1731.80622316317</v>
+        <v>1731.806223163169</v>
       </c>
       <c r="I3" t="n">
-        <v>1724.892546195891</v>
+        <v>1724.89254619589</v>
       </c>
       <c r="J3" t="n">
         <v>1720.572845739201</v>
@@ -778,7 +778,7 @@
         <v>1595.565368356274</v>
       </c>
       <c r="M3" t="n">
-        <v>1432.874021121978</v>
+        <v>1432.874021121977</v>
       </c>
       <c r="N3" t="n">
         <v>1352.110129736581</v>
@@ -796,7 +796,7 @@
         <v>690.2486892280491</v>
       </c>
       <c r="S3" t="n">
-        <v>646.2196762254702</v>
+        <v>646.2196762254699</v>
       </c>
       <c r="T3" t="n">
         <v>2246.099917642911</v>
@@ -814,34 +814,34 @@
         <v>1224.182610604013</v>
       </c>
       <c r="Y3" t="n">
-        <v>413.2939030774344</v>
+        <v>413.2939030774343</v>
       </c>
       <c r="Z3" t="n">
-        <v>368.9956546955239</v>
+        <v>368.9956546955238</v>
       </c>
       <c r="AA3" t="n">
-        <v>409.8849695622416</v>
+        <v>409.8849695622418</v>
       </c>
       <c r="AB3" t="n">
         <v>1017.131556760936</v>
       </c>
       <c r="AC3" t="n">
-        <v>879.6556292708279</v>
+        <v>879.6556292708277</v>
       </c>
       <c r="AD3" t="n">
-        <v>621.7742053431773</v>
+        <v>621.7742053431771</v>
       </c>
       <c r="AE3" t="n">
         <v>1540.839525721873</v>
       </c>
       <c r="AF3" t="n">
-        <v>2891.788229778491</v>
+        <v>2891.788229778492</v>
       </c>
       <c r="AG3" t="n">
         <v>1166.027263368128</v>
       </c>
       <c r="AH3" t="n">
-        <v>557.8634306474756</v>
+        <v>557.8634306474755</v>
       </c>
       <c r="AI3" t="n">
         <v>1184.142871087277</v>
@@ -872,106 +872,106 @@
         <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>635.1965603429131</v>
+        <v>631.3848812209288</v>
       </c>
       <c r="F4" t="n">
-        <v>570743.7771055079</v>
+        <v>563481.7658837779</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02349134626534288</v>
+        <v>0.02332897822353959</v>
       </c>
       <c r="H4" t="n">
-        <v>1894.432805971824</v>
+        <v>1885.266877123246</v>
       </c>
       <c r="I4" t="n">
-        <v>1842.588879802902</v>
+        <v>1856.126168832965</v>
       </c>
       <c r="J4" t="n">
-        <v>1835.937090742945</v>
+        <v>1851.80166802226</v>
       </c>
       <c r="K4" t="n">
-        <v>1818.784653529334</v>
+        <v>1834.263786459933</v>
       </c>
       <c r="L4" t="n">
-        <v>1777.507650724394</v>
+        <v>1794.502656081932</v>
       </c>
       <c r="M4" t="n">
-        <v>1576.936905444717</v>
+        <v>1566.251696255253</v>
       </c>
       <c r="N4" t="n">
-        <v>1514.4639651916</v>
+        <v>1534.547869417759</v>
       </c>
       <c r="O4" t="n">
-        <v>2535.189667506051</v>
+        <v>2805.218701153586</v>
       </c>
       <c r="P4" t="n">
-        <v>1749.597462342776</v>
+        <v>1879.028960450027</v>
       </c>
       <c r="Q4" t="n">
-        <v>1155.309156485926</v>
+        <v>1220.895092661717</v>
       </c>
       <c r="R4" t="n">
-        <v>865.0628071899717</v>
+        <v>856.9118975471079</v>
       </c>
       <c r="S4" t="n">
-        <v>1112.447004683859</v>
+        <v>1100.92817784253</v>
       </c>
       <c r="T4" t="n">
-        <v>2506.159144758113</v>
+        <v>2478.134620036202</v>
       </c>
       <c r="U4" t="n">
-        <v>3773.751196228705</v>
+        <v>3604.141360320155</v>
       </c>
       <c r="V4" t="n">
-        <v>2518.364850537726</v>
+        <v>2366.100554767117</v>
       </c>
       <c r="W4" t="n">
-        <v>1812.010610000105</v>
+        <v>1747.847961213351</v>
       </c>
       <c r="X4" t="n">
-        <v>1215.791024836866</v>
+        <v>1167.168845808714</v>
       </c>
       <c r="Y4" t="n">
-        <v>780.8876890585537</v>
+        <v>770.063421759071</v>
       </c>
       <c r="Z4" t="n">
-        <v>727.2768971848594</v>
+        <v>760.8195518086224</v>
       </c>
       <c r="AA4" t="n">
-        <v>931.8948137731213</v>
+        <v>932.5041499060058</v>
       </c>
       <c r="AB4" t="n">
-        <v>1471.974281496126</v>
+        <v>1527.467183746742</v>
       </c>
       <c r="AC4" t="n">
-        <v>1040.631042707464</v>
+        <v>1138.351563612652</v>
       </c>
       <c r="AD4" t="n">
-        <v>625.5405427199113</v>
+        <v>652.6126547743661</v>
       </c>
       <c r="AE4" t="n">
-        <v>1464.200541542101</v>
+        <v>1371.005613602688</v>
       </c>
       <c r="AF4" t="n">
-        <v>2795.289387544294</v>
+        <v>2656.631173503618</v>
       </c>
       <c r="AG4" t="n">
-        <v>1190.829262260648</v>
+        <v>1145.653174831373</v>
       </c>
       <c r="AH4" t="n">
-        <v>881.5417166623506</v>
+        <v>849.5309379694376</v>
       </c>
       <c r="AI4" t="n">
-        <v>1536.59001564216</v>
+        <v>1557.044990212721</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3043.493686158839</v>
+        <v>3096.966280394497</v>
       </c>
       <c r="AK4" t="n">
-        <v>3448.867820634187</v>
+        <v>3514.593885807405</v>
       </c>
       <c r="AL4" t="n">
-        <v>2959.013451206367</v>
+        <v>3163.536285354547</v>
       </c>
     </row>
     <row r="5">
@@ -990,106 +990,106 @@
         <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>134.9046313015524</v>
+        <v>135.2370251839692</v>
       </c>
       <c r="F5" t="n">
-        <v>40533.48855282844</v>
+        <v>40606.8741900893</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004896498180385417</v>
+        <v>0.00492014761736742</v>
       </c>
       <c r="H5" t="n">
-        <v>1718.145774301927</v>
+        <v>1716.404840804115</v>
       </c>
       <c r="I5" t="n">
-        <v>1709.945667426308</v>
+        <v>1716.035980303714</v>
       </c>
       <c r="J5" t="n">
-        <v>1696.017353803106</v>
+        <v>1698.573062727439</v>
       </c>
       <c r="K5" t="n">
-        <v>1675.158225274205</v>
+        <v>1683.987445863379</v>
       </c>
       <c r="L5" t="n">
-        <v>1556.288204585084</v>
+        <v>1574.250922472795</v>
       </c>
       <c r="M5" t="n">
-        <v>1417.901856968992</v>
+        <v>1451.260649341431</v>
       </c>
       <c r="N5" t="n">
-        <v>1352.750608598194</v>
+        <v>1386.08889400721</v>
       </c>
       <c r="O5" t="n">
-        <v>2618.53466726684</v>
+        <v>2779.987889832694</v>
       </c>
       <c r="P5" t="n">
-        <v>1870.609617279522</v>
+        <v>2032.062839845376</v>
       </c>
       <c r="Q5" t="n">
-        <v>1177.676366159006</v>
+        <v>1339.129588724861</v>
       </c>
       <c r="R5" t="n">
-        <v>611.6952830786951</v>
+        <v>761.5235785424397</v>
       </c>
       <c r="S5" t="n">
-        <v>674.0793749514002</v>
+        <v>652.2538546632506</v>
       </c>
       <c r="T5" t="n">
-        <v>2326.244879460277</v>
+        <v>2212.130301056758</v>
       </c>
       <c r="U5" t="n">
-        <v>3575.713116947614</v>
+        <v>3438.226795618546</v>
       </c>
       <c r="V5" t="n">
-        <v>2469.033963120332</v>
+        <v>2322.44983698975</v>
       </c>
       <c r="W5" t="n">
-        <v>1882.94219629306</v>
+        <v>1721.878702006878</v>
       </c>
       <c r="X5" t="n">
-        <v>1235.929431410795</v>
+        <v>1076.137255285703</v>
       </c>
       <c r="Y5" t="n">
-        <v>367.7604129890571</v>
+        <v>316.2856263441851</v>
       </c>
       <c r="Z5" t="n">
-        <v>308.3487754423286</v>
+        <v>325.298932027902</v>
       </c>
       <c r="AA5" t="n">
-        <v>364.4630025720371</v>
+        <v>420.4236589420619</v>
       </c>
       <c r="AB5" t="n">
-        <v>1046.218147298658</v>
+        <v>1200.493010884758</v>
       </c>
       <c r="AC5" t="n">
-        <v>899.1641056121762</v>
+        <v>1049.056492402943</v>
       </c>
       <c r="AD5" t="n">
-        <v>513.5544707190235</v>
+        <v>560.6467038932791</v>
       </c>
       <c r="AE5" t="n">
-        <v>1499.314475275568</v>
+        <v>1367.520013956647</v>
       </c>
       <c r="AF5" t="n">
-        <v>2917.329654158992</v>
+        <v>2755.876431593137</v>
       </c>
       <c r="AG5" t="n">
-        <v>1196.1733298627</v>
+        <v>1042.18108690834</v>
       </c>
       <c r="AH5" t="n">
-        <v>568.83654458157</v>
+        <v>474.9833083653963</v>
       </c>
       <c r="AI5" t="n">
-        <v>1117.799093565442</v>
+        <v>1244.279234330965</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2774.900614721379</v>
+        <v>2936.219707371691</v>
       </c>
       <c r="AK5" t="n">
-        <v>3273.855233221884</v>
+        <v>3435.308455787738</v>
       </c>
       <c r="AL5" t="n">
-        <v>2986.093651366579</v>
+        <v>3147.546873932435</v>
       </c>
     </row>
     <row r="6">
